--- a/personal_number_to_name.xlsx
+++ b/personal_number_to_name.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_286941F4AB534F30C72C4C363DAD0477787F189C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE07F442-5857-4FD2-B3EF-779615DBD076}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_286941F4AB534F30C72C4C363DAD0477787F189C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FACF4AD-0B5D-4A01-9D8A-21F30AA0ADF0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15852,7 +15852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3414" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3408" workbookViewId="0">
       <selection sqref="A1:B3434"/>
     </sheetView>
   </sheetViews>
